--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H2">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2365093333333333</v>
+        <v>0.4581623333333333</v>
       </c>
       <c r="N2">
-        <v>0.7095279999999999</v>
+        <v>1.374487</v>
       </c>
       <c r="O2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="P2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="Q2">
-        <v>0.5416655006666666</v>
+        <v>0.265589374036</v>
       </c>
       <c r="R2">
-        <v>4.874989505999999</v>
+        <v>2.390304366324</v>
       </c>
       <c r="S2">
-        <v>0.006013533229697845</v>
+        <v>0.1060599910922654</v>
       </c>
       <c r="T2">
-        <v>0.006013533229697844</v>
+        <v>0.1060599910922654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H3">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07510100000000001</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
         <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="P3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="Q3">
-        <v>0.17200006525</v>
+        <v>0.043534848084</v>
       </c>
       <c r="R3">
-        <v>1.54800058725</v>
+        <v>0.391813632756</v>
       </c>
       <c r="S3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
       <c r="T3">
-        <v>0.001909532925058086</v>
+        <v>0.01738512926863672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,176 +652,52 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.579684</v>
+      </c>
+      <c r="H4">
+        <v>1.739052</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.29025</v>
-      </c>
-      <c r="H4">
-        <v>6.870749999999999</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006358</v>
+        <v>3.786578</v>
       </c>
       <c r="N4">
-        <v>0.019074</v>
+        <v>11.359734</v>
       </c>
       <c r="O4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="P4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="Q4">
-        <v>0.0145614095</v>
+        <v>2.195018681352</v>
       </c>
       <c r="R4">
-        <v>0.1310526855</v>
+        <v>19.755168132168</v>
       </c>
       <c r="S4">
-        <v>0.0001616597693442073</v>
+        <v>0.8765548796390978</v>
       </c>
       <c r="T4">
-        <v>0.0001616597693442073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.29025</v>
-      </c>
-      <c r="H5">
-        <v>6.870749999999999</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>38.91081433333333</v>
-      </c>
-      <c r="N5">
-        <v>116.732443</v>
-      </c>
-      <c r="O5">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="P5">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="Q5">
-        <v>89.11549252691665</v>
-      </c>
-      <c r="R5">
-        <v>802.0394327422498</v>
-      </c>
-      <c r="S5">
-        <v>0.9893540846369833</v>
-      </c>
-      <c r="T5">
-        <v>0.9893540846369833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.29025</v>
-      </c>
-      <c r="H6">
-        <v>6.870749999999999</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1007303333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.302191</v>
-      </c>
-      <c r="O6">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="P6">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="Q6">
-        <v>0.2306976459166666</v>
-      </c>
-      <c r="R6">
-        <v>2.07627881325</v>
-      </c>
-      <c r="S6">
-        <v>0.002561189438916605</v>
-      </c>
-      <c r="T6">
-        <v>0.002561189438916605</v>
+        <v>0.8765548796390978</v>
       </c>
     </row>
   </sheetData>
